--- a/resources/links.xlsx
+++ b/resources/links.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyothiswaroop\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyothiswaroop\PycharmProjects\url_processor_project\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B761BC-0EFB-4E1B-B466-67637C867A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DF0E34-80D5-4165-88A3-C8B2FCA5463E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>URLS</t>
   </si>
   <si>
     <t>oceanofgames.com</t>
-  </si>
-  <si>
-    <t>www.cnn.com</t>
   </si>
   <si>
     <t>google.com</t>
@@ -357,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A5"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -385,11 +382,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/links.xlsx
+++ b/resources/links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyothiswaroop\PycharmProjects\url_processor_project\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DF0E34-80D5-4165-88A3-C8B2FCA5463E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495F180C-451E-4E66-89FA-0BEF6798A012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>URLS</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>http://www.liquidgeneration.com/</t>
+  </si>
+  <si>
+    <t>https://httpstat.us/403</t>
   </si>
 </sst>
 </file>
@@ -354,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -382,6 +385,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
